--- a/dataCollection.xlsx
+++ b/dataCollection.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abi1k\OneDrive\Documents\Microlocation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-23" windowWidth="25598" windowHeight="15518" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -18,8 +26,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>z</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -57,11 +73,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -104,13 +128,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.5</c:v>
@@ -119,25 +143,25 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4.5</c:v>
@@ -146,22 +170,22 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>6.5</c:v>
@@ -170,73 +194,73 @@
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.5</c:v>
@@ -246,30 +270,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$48</c:f>
+              <c:f>[1]Sheet1!$B$44:$B$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
                 <c:pt idx="0">
-                  <c:v>-60.4285714285714</c:v>
+                  <c:v>-60.428571428571402</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-66.8275862068965</c:v>
+                  <c:v>-66.827586206896498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-77.2857142857142</c:v>
+                  <c:v>-77.285714285714207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-67.5714285714285</c:v>
+                  <c:v>-67.571428571428498</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-74.0689655172413</c:v>
+                  <c:v>-74.068965517241296</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-86.4166666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-72.0</c:v>
+                  <c:v>-72</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-80.25</c:v>
@@ -278,64 +302,64 @@
                   <c:v>-84.56</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-83.9090909090909</c:v>
+                  <c:v>-83.909090909090907</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-75.2142857142857</c:v>
+                  <c:v>-75.214285714285694</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-74.6551724137931</c:v>
+                  <c:v>-74.655172413793096</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-82.9655172413793</c:v>
+                  <c:v>-82.965517241379303</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>-81.16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-84.48275862068959</c:v>
+                  <c:v>-84.482758620689594</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-84.0384615384615</c:v>
+                  <c:v>-84.038461538461505</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-83.4782608695652</c:v>
+                  <c:v>-83.478260869565204</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-84.2222222222222</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-88.4090909090909</c:v>
+                  <c:v>-88.409090909090907</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-89.3043478260869</c:v>
+                  <c:v>-89.304347826086897</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-88.4166666666666</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-88.5384615384615</c:v>
+                  <c:v>-88.538461538461505</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-87.2272727272727</c:v>
+                  <c:v>-87.227272727272705</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-87.0</c:v>
+                  <c:v>-87</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-85.3703703703703</c:v>
+                  <c:v>-85.370370370370296</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-83.6428571428571</c:v>
+                  <c:v>-83.642857142857096</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-88.0</c:v>
+                  <c:v>-88</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-89.48275862068959</c:v>
+                  <c:v>-89.482758620689594</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-81.5714285714285</c:v>
+                  <c:v>-81.571428571428498</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-86.55</c:v>
@@ -344,46 +368,46 @@
                   <c:v>-86.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-84.4666666666666</c:v>
+                  <c:v>-84.466666666666598</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-82.10344827586199</c:v>
+                  <c:v>-82.103448275861993</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-87.56</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-86.7857142857142</c:v>
+                  <c:v>-86.785714285714207</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-81.4666666666666</c:v>
+                  <c:v>-81.466666666666598</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-78.4642857142857</c:v>
+                  <c:v>-78.464285714285694</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-81.1428571428571</c:v>
+                  <c:v>-81.142857142857096</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-73.9285714285714</c:v>
+                  <c:v>-73.928571428571402</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-81.9642857142857</c:v>
+                  <c:v>-81.964285714285694</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-86.8947368421052</c:v>
+                  <c:v>-86.894736842105203</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-89.125</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-84.93333333333329</c:v>
+                  <c:v>-84.933333333333294</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-84.2222222222222</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-81.72413793103441</c:v>
+                  <c:v>-81.724137931034406</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-53.75</c:v>
@@ -392,6 +416,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E760-485C-AD8F-5772D93A0B73}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -447,7 +476,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -486,6 +515,250 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="44">
+          <cell r="B44">
+            <v>-60.428571428571402</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>-66.827586206896498</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>-77.285714285714207</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>-67.571428571428498</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>-74.068965517241296</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>-86.4166666666666</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>-72</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>-80.25</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>-84.56</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>-83.909090909090907</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>-75.214285714285694</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>-74.655172413793096</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>-82.965517241379303</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>-81.16</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>-84.482758620689594</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>-84.038461538461505</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>-83.478260869565204</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>-84.2222222222222</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>-88.409090909090907</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>-89.304347826086897</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>-88.4166666666666</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>-88.538461538461505</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>-87.227272727272705</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67">
+            <v>-87</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>-85.370370370370296</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>-83.642857142857096</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>-88</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>-89.482758620689594</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>-81.571428571428498</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>-86.55</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>-86.5</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>-84.466666666666598</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76">
+            <v>-82.103448275861993</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77">
+            <v>-87.56</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78">
+            <v>-86.785714285714207</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79">
+            <v>-81.466666666666598</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80">
+            <v>-78.464285714285694</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>-81.142857142857096</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82">
+            <v>-73.928571428571402</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83">
+            <v>-81.964285714285694</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84">
+            <v>-86.894736842105203</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85">
+            <v>-89.125</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86">
+            <v>-84.933333333333294</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87">
+            <v>-84.2222222222222</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>-81.724137931034406</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>-53.75</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -810,15 +1083,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B48"/>
+  <dimension ref="A3:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -826,7 +1099,7 @@
         <v>-60.428571428571402</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>1.5</v>
       </c>
@@ -834,7 +1107,7 @@
         <v>-66.827586206896498</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>2</v>
       </c>
@@ -842,7 +1115,7 @@
         <v>-77.285714285714207</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -850,7 +1123,7 @@
         <v>-67.571428571428498</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>2.5</v>
       </c>
@@ -858,7 +1131,7 @@
         <v>-74.068965517241296</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>3</v>
       </c>
@@ -866,7 +1139,7 @@
         <v>-86.4166666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>2</v>
       </c>
@@ -874,7 +1147,7 @@
         <v>-72</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>3.5</v>
       </c>
@@ -882,7 +1155,7 @@
         <v>-80.25</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>4</v>
       </c>
@@ -890,7 +1163,7 @@
         <v>-84.56</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>3</v>
       </c>
@@ -898,7 +1171,7 @@
         <v>-83.909090909090907</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>2</v>
       </c>
@@ -906,7 +1179,7 @@
         <v>-75.214285714285694</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>2</v>
       </c>
@@ -914,7 +1187,7 @@
         <v>-74.655172413793096</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>4.5</v>
       </c>
@@ -922,7 +1195,7 @@
         <v>-82.965517241379303</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>4.5</v>
       </c>
@@ -930,7 +1203,7 @@
         <v>-81.16</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>5</v>
       </c>
@@ -938,7 +1211,7 @@
         <v>-84.482758620689594</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>5</v>
       </c>
@@ -946,7 +1219,7 @@
         <v>-84.038461538461505</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>4</v>
       </c>
@@ -954,7 +1227,7 @@
         <v>-83.478260869565204</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>4</v>
       </c>
@@ -962,7 +1235,7 @@
         <v>-84.2222222222222</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>5.5</v>
       </c>
@@ -970,7 +1243,7 @@
         <v>-88.409090909090907</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>6</v>
       </c>
@@ -978,7 +1251,7 @@
         <v>-89.304347826086897</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>6.5</v>
       </c>
@@ -986,7 +1259,7 @@
         <v>-88.4166666666666</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>6.5</v>
       </c>
@@ -994,7 +1267,7 @@
         <v>-88.538461538461505</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>7</v>
       </c>
@@ -1002,7 +1275,7 @@
         <v>-87.227272727272705</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1010,7 +1283,7 @@
         <v>-87</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>6</v>
       </c>
@@ -1018,7 +1291,7 @@
         <v>-85.370370370370296</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>7.5</v>
       </c>
@@ -1026,7 +1299,7 @@
         <v>-83.642857142857096</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>8</v>
       </c>
@@ -1034,7 +1307,7 @@
         <v>-88</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>8</v>
       </c>
@@ -1042,7 +1315,7 @@
         <v>-89.482758620689594</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>7</v>
       </c>
@@ -1050,7 +1323,7 @@
         <v>-81.571428571428498</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>6.5</v>
       </c>
@@ -1058,7 +1331,7 @@
         <v>-86.55</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1066,7 +1339,7 @@
         <v>-86.5</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>5.5</v>
       </c>
@@ -1074,7 +1347,7 @@
         <v>-84.466666666666598</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>5</v>
       </c>
@@ -1082,7 +1355,7 @@
         <v>-82.103448275861993</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>4.5</v>
       </c>
@@ -1090,7 +1363,7 @@
         <v>-87.56</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1098,7 +1371,7 @@
         <v>-86.785714285714207</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>3.5</v>
       </c>
@@ -1106,7 +1379,7 @@
         <v>-81.466666666666598</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1114,7 +1387,7 @@
         <v>-78.464285714285694</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>2.5</v>
       </c>
@@ -1122,7 +1395,7 @@
         <v>-81.142857142857096</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1130,7 +1403,7 @@
         <v>-73.928571428571402</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1138,7 +1411,7 @@
         <v>-81.964285714285694</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>8.5</v>
       </c>
@@ -1146,7 +1419,7 @@
         <v>-86.894736842105203</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>9</v>
       </c>
@@ -1154,7 +1427,7 @@
         <v>-89.125</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>10</v>
       </c>
@@ -1162,7 +1435,7 @@
         <v>-84.933333333333294</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>10</v>
       </c>
@@ -1170,7 +1443,7 @@
         <v>-84.2222222222222</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>11</v>
       </c>
@@ -1178,12 +1451,15 @@
         <v>-81.724137931034406</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>0.5</v>
       </c>
       <c r="B48">
         <v>-53.75</v>
+      </c>
+      <c r="E48" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
